--- a/output/teste-contas-balver-msc.xlsx
+++ b/output/teste-contas-balver-msc.xlsx
@@ -13,47 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>conta_contabil</t>
-  </si>
-  <si>
-    <t>saldo_inicial_valor</t>
-  </si>
-  <si>
-    <t>saldo_inicial_natureza</t>
-  </si>
-  <si>
-    <t>movimento_debito</t>
-  </si>
-  <si>
-    <t>movimento_credito</t>
-  </si>
-  <si>
-    <t>saldo_final_valor</t>
-  </si>
-  <si>
-    <t>saldo_final_natureza</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -77,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,56 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>123910103</v>
-      </c>
-      <c r="B2">
-        <v>203.83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>203.83</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/teste-contas-balver-msc.xlsx
+++ b/output/teste-contas-balver-msc.xlsx
@@ -13,10 +13,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="9">
+  <si>
+    <t>conta_contabil</t>
+  </si>
+  <si>
+    <t>saldo_inicial_valor</t>
+  </si>
+  <si>
+    <t>saldo_inicial_natureza</t>
+  </si>
+  <si>
+    <t>movimento_debito</t>
+  </si>
+  <si>
+    <t>movimento_credito</t>
+  </si>
+  <si>
+    <t>saldo_final_valor</t>
+  </si>
+  <si>
+    <t>saldo_final_natureza</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +80,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +398,4417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>111111902</v>
+      </c>
+      <c r="B2">
+        <v>66077.03</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>45910.62</v>
+      </c>
+      <c r="E2">
+        <v>34672.36</v>
+      </c>
+      <c r="F2">
+        <v>77315.28999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>111111912</v>
+      </c>
+      <c r="B3">
+        <v>135588.73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>4088.82</v>
+      </c>
+      <c r="E3">
+        <v>7349.46</v>
+      </c>
+      <c r="F3">
+        <v>132328.09</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>111111999</v>
+      </c>
+      <c r="B4">
+        <v>12274.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>894318.14</v>
+      </c>
+      <c r="E4">
+        <v>890502.8199999999</v>
+      </c>
+      <c r="F4">
+        <v>16089.72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>111115001</v>
+      </c>
+      <c r="B5">
+        <v>8745420.67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>713288.4</v>
+      </c>
+      <c r="E5">
+        <v>1176006.65</v>
+      </c>
+      <c r="F5">
+        <v>8282702.42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>111115201</v>
+      </c>
+      <c r="B6">
+        <v>16363.23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>10130.92</v>
+      </c>
+      <c r="E6">
+        <v>1511.62</v>
+      </c>
+      <c r="F6">
+        <v>24982.53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>112410210</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>134183.2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>134183.2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>112619902</v>
+      </c>
+      <c r="B8">
+        <v>496.8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>496.8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>112619903</v>
+      </c>
+      <c r="B9">
+        <v>137.01</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>933.55</v>
+      </c>
+      <c r="E9">
+        <v>1070.56</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>113819901</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>113819904</v>
+      </c>
+      <c r="B11">
+        <v>65563.2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>65563.2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>114419901</v>
+      </c>
+      <c r="B12">
+        <v>4287433.41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>33954</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4321387.41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>115610301</v>
+      </c>
+      <c r="B13">
+        <v>6739.34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>78542.72</v>
+      </c>
+      <c r="E13">
+        <v>73592.72</v>
+      </c>
+      <c r="F13">
+        <v>11689.34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>115610302</v>
+      </c>
+      <c r="B14">
+        <v>124220.36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>12694.69</v>
+      </c>
+      <c r="F14">
+        <v>111525.67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>115610304</v>
+      </c>
+      <c r="B15">
+        <v>53492.36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>237.15</v>
+      </c>
+      <c r="F15">
+        <v>53255.21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>115610305</v>
+      </c>
+      <c r="B16">
+        <v>1401.71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>2171.97</v>
+      </c>
+      <c r="E16">
+        <v>2917.35</v>
+      </c>
+      <c r="F16">
+        <v>656.33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>115610306</v>
+      </c>
+      <c r="B17">
+        <v>15369.21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1517</v>
+      </c>
+      <c r="E17">
+        <v>3333.38</v>
+      </c>
+      <c r="F17">
+        <v>13552.83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>115610401</v>
+      </c>
+      <c r="B18">
+        <v>523634.79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>100773.83</v>
+      </c>
+      <c r="E18">
+        <v>47741.84</v>
+      </c>
+      <c r="F18">
+        <v>576666.78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>115610402</v>
+      </c>
+      <c r="B19">
+        <v>89180.21000000001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>4960.74</v>
+      </c>
+      <c r="E19">
+        <v>8436.58</v>
+      </c>
+      <c r="F19">
+        <v>85704.37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>115610403</v>
+      </c>
+      <c r="B20">
+        <v>9687.15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>13245.36</v>
+      </c>
+      <c r="E20">
+        <v>15316.96</v>
+      </c>
+      <c r="F20">
+        <v>7615.55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>115610501</v>
+      </c>
+      <c r="B21">
+        <v>210971.8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>18593.49</v>
+      </c>
+      <c r="E21">
+        <v>33592.91</v>
+      </c>
+      <c r="F21">
+        <v>195972.38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>115610502</v>
+      </c>
+      <c r="B22">
+        <v>16814.49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2657.48</v>
+      </c>
+      <c r="F22">
+        <v>14157.01</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>119110100</v>
+      </c>
+      <c r="B23">
+        <v>12066.23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>2115.97</v>
+      </c>
+      <c r="E23">
+        <v>2442.08</v>
+      </c>
+      <c r="F23">
+        <v>11740.12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>119310100</v>
+      </c>
+      <c r="B24">
+        <v>2487.55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>320</v>
+      </c>
+      <c r="E24">
+        <v>240.41</v>
+      </c>
+      <c r="F24">
+        <v>2567.14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>121110531</v>
+      </c>
+      <c r="B25">
+        <v>23573.45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>133.24</v>
+      </c>
+      <c r="E25">
+        <v>933.55</v>
+      </c>
+      <c r="F25">
+        <v>22773.14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>123110140</v>
+      </c>
+      <c r="B26">
+        <v>48092.01</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>48092.01</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>213110150</v>
+      </c>
+      <c r="B27">
+        <v>26802.62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>27067.88</v>
+      </c>
+      <c r="E27">
+        <v>26682.55</v>
+      </c>
+      <c r="F27">
+        <v>26417.29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>218911401</v>
+      </c>
+      <c r="B28">
+        <v>43939.04</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>5285.46</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>38653.58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>218911402</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>28564.1</v>
+      </c>
+      <c r="E29">
+        <v>28564.1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>218949903</v>
+      </c>
+      <c r="B30">
+        <v>65563.2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>65563.2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>228910002</v>
+      </c>
+      <c r="B31">
+        <v>100000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>100000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>329910100</v>
+      </c>
+      <c r="B32">
+        <v>138942.43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>75259.89999999999</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>214202.33</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>332319902</v>
+      </c>
+      <c r="B33">
+        <v>8197.120000000001</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>5798.42</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>13995.54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>332319950</v>
+      </c>
+      <c r="B34">
+        <v>8433.049999999999</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>33716.17</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>42149.22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>332319951</v>
+      </c>
+      <c r="B35">
+        <v>50324.1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>29729.77</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>80053.87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>332319952</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3400.08</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3400.08</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>332319953</v>
+      </c>
+      <c r="B37">
+        <v>5520</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>5520</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>332319954</v>
+      </c>
+      <c r="B38">
+        <v>1396.9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>8000</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>9396.9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>332319955</v>
+      </c>
+      <c r="B39">
+        <v>6716.6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>17494.76</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>24211.36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>332319956</v>
+      </c>
+      <c r="B40">
+        <v>2702.56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2702.56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>332319957</v>
+      </c>
+      <c r="B41">
+        <v>44049</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>43311.12</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>87360.12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>332319958</v>
+      </c>
+      <c r="B42">
+        <v>1950</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1950</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>351120201</v>
+      </c>
+      <c r="B43">
+        <v>83000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>55000</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>138000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>352130500</v>
+      </c>
+      <c r="B44">
+        <v>300.69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>300.69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>352240001</v>
+      </c>
+      <c r="B45">
+        <v>672286.72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>208003.29</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>880290.01</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>352240002</v>
+      </c>
+      <c r="B46">
+        <v>5.65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>4.47</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>10.12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>352240004</v>
+      </c>
+      <c r="B47">
+        <v>508474.41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>171061.62</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>679536.03</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>352240005</v>
+      </c>
+      <c r="B48">
+        <v>55321.93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>24078.52</v>
+      </c>
+      <c r="E48">
+        <v>8175.84</v>
+      </c>
+      <c r="F48">
+        <v>71224.61</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>352240006</v>
+      </c>
+      <c r="B49">
+        <v>6314.21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>2432.4</v>
+      </c>
+      <c r="E49">
+        <v>512.61</v>
+      </c>
+      <c r="F49">
+        <v>8234</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>399130100</v>
+      </c>
+      <c r="B50">
+        <v>38000</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>38000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>399610100</v>
+      </c>
+      <c r="B51">
+        <v>1062.8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>1914.03</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2976.83</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>399910109</v>
+      </c>
+      <c r="B52">
+        <v>3529.2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>3529.2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>412110800</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>820</v>
+      </c>
+      <c r="E53">
+        <v>820</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>412119901</v>
+      </c>
+      <c r="B54">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>412219901</v>
+      </c>
+      <c r="B55">
+        <v>922.2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>159</v>
+      </c>
+      <c r="F55">
+        <v>1081.2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>451120201</v>
+      </c>
+      <c r="B56">
+        <v>83000</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>55000</v>
+      </c>
+      <c r="F56">
+        <v>138000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>452149901</v>
+      </c>
+      <c r="B57">
+        <v>9000</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>9000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>452149902</v>
+      </c>
+      <c r="B58">
+        <v>274.2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>274.2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>452240001</v>
+      </c>
+      <c r="B59">
+        <v>1963278.83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>15846.11</v>
+      </c>
+      <c r="E59">
+        <v>634027.14</v>
+      </c>
+      <c r="F59">
+        <v>2581459.86</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>463910110</v>
+      </c>
+      <c r="B60">
+        <v>6.97</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>6.97</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>712310201</v>
+      </c>
+      <c r="B61">
+        <v>3387836.3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>150159.08</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>3537995.38</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>712310202</v>
+      </c>
+      <c r="B62">
+        <v>5270189.09</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>882603.17</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>6152792.26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>712319902</v>
+      </c>
+      <c r="B63">
+        <v>1169303.07</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>77500</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1246803.07</v>
+      </c>
+      <c r="G63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>721121041</v>
+      </c>
+      <c r="B64">
+        <v>7717.55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>2929.61</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>10647.16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>721121047</v>
+      </c>
+      <c r="B65">
+        <v>22047.12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>4684.63</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>26731.75</v>
+      </c>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>721121080</v>
+      </c>
+      <c r="B66">
+        <v>217.25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>3.31</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>220.56</v>
+      </c>
+      <c r="G66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>721121091</v>
+      </c>
+      <c r="B67">
+        <v>17811.42</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>17828.45</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>35639.87</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>721138002</v>
+      </c>
+      <c r="B68">
+        <v>2471.76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>5538.49</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>8010.25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>721138006</v>
+      </c>
+      <c r="B69">
+        <v>5175.81</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>1833.7</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>7009.51</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>791130100</v>
+      </c>
+      <c r="B70">
+        <v>388542.25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>388542.25</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>791210200</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>491.08</v>
+      </c>
+      <c r="E71">
+        <v>491.08</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>791210300</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
+      </c>
+      <c r="E72">
+        <v>50</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>791212600</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>730</v>
+      </c>
+      <c r="E73">
+        <v>430</v>
+      </c>
+      <c r="F73">
+        <v>300</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>791213000</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>540.71</v>
+      </c>
+      <c r="E74">
+        <v>540.71</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>791214400</v>
+      </c>
+      <c r="B75">
+        <v>210.02</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>210.02</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>791214800</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>820</v>
+      </c>
+      <c r="E76">
+        <v>820</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>791217500</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>28</v>
+      </c>
+      <c r="E77">
+        <v>28</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>791219700</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>39.77</v>
+      </c>
+      <c r="E78">
+        <v>39.77</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>791290200</v>
+      </c>
+      <c r="B79">
+        <v>424.83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>424.83</v>
+      </c>
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>791290300</v>
+      </c>
+      <c r="B80">
+        <v>2758</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>2758</v>
+      </c>
+      <c r="G80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>791290500</v>
+      </c>
+      <c r="B81">
+        <v>685</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>685</v>
+      </c>
+      <c r="G81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>791290600</v>
+      </c>
+      <c r="B82">
+        <v>899</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>899</v>
+      </c>
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>791290700</v>
+      </c>
+      <c r="B83">
+        <v>3187.8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>3187.8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>791290800</v>
+      </c>
+      <c r="B84">
+        <v>1120.44</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1120.44</v>
+      </c>
+      <c r="G84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>791290900</v>
+      </c>
+      <c r="B85">
+        <v>5581.8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>5581.8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>791291000</v>
+      </c>
+      <c r="B86">
+        <v>5795.8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>899</v>
+      </c>
+      <c r="F86">
+        <v>4896.8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>791291100</v>
+      </c>
+      <c r="B87">
+        <v>1350</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1350</v>
+      </c>
+      <c r="G87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>791291300</v>
+      </c>
+      <c r="B88">
+        <v>699</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>699</v>
+      </c>
+      <c r="G88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>791291400</v>
+      </c>
+      <c r="B89">
+        <v>699</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>699</v>
+      </c>
+      <c r="G89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>791291600</v>
+      </c>
+      <c r="B90">
+        <v>3628.32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>3628.32</v>
+      </c>
+      <c r="G90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>791291700</v>
+      </c>
+      <c r="B91">
+        <v>2201.72</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>374.07</v>
+      </c>
+      <c r="E91">
+        <v>284.01</v>
+      </c>
+      <c r="F91">
+        <v>2291.78</v>
+      </c>
+      <c r="G91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>791291800</v>
+      </c>
+      <c r="B92">
+        <v>780</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>780</v>
+      </c>
+      <c r="G92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>791291900</v>
+      </c>
+      <c r="B93">
+        <v>415.65</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>415.65</v>
+      </c>
+      <c r="G93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>791292000</v>
+      </c>
+      <c r="B94">
+        <v>5581.8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>5581.8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>791292100</v>
+      </c>
+      <c r="B95">
+        <v>1134</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1134</v>
+      </c>
+      <c r="G95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>791292200</v>
+      </c>
+      <c r="B96">
+        <v>1134</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1134</v>
+      </c>
+      <c r="G96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>791292300</v>
+      </c>
+      <c r="B97">
+        <v>1134</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1134</v>
+      </c>
+      <c r="G97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>791292400</v>
+      </c>
+      <c r="B98">
+        <v>1134</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1134</v>
+      </c>
+      <c r="G98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>791292500</v>
+      </c>
+      <c r="B99">
+        <v>1134</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1134</v>
+      </c>
+      <c r="G99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>791292700</v>
+      </c>
+      <c r="B100">
+        <v>3187.8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>3187.8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>791292800</v>
+      </c>
+      <c r="B101">
+        <v>3187.8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>3187.8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>791292900</v>
+      </c>
+      <c r="B102">
+        <v>3187.8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>3187.8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>791293000</v>
+      </c>
+      <c r="B103">
+        <v>3187.8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>3187.8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>791293100</v>
+      </c>
+      <c r="B104">
+        <v>3187.8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>3187.8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>791293200</v>
+      </c>
+      <c r="B105">
+        <v>3187.8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>3187.8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>791293300</v>
+      </c>
+      <c r="B106">
+        <v>3187.8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>3187.8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>791293400</v>
+      </c>
+      <c r="B107">
+        <v>3187.8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>3187.8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>791293500</v>
+      </c>
+      <c r="B108">
+        <v>3187.8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>3187.8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>791293600</v>
+      </c>
+      <c r="B109">
+        <v>3187.8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>3187.8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>791293700</v>
+      </c>
+      <c r="B110">
+        <v>3187.8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>3187.8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>791293900</v>
+      </c>
+      <c r="B111">
+        <v>3187.8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>3187.8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>791294000</v>
+      </c>
+      <c r="B112">
+        <v>3187.8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>3187.8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>791294100</v>
+      </c>
+      <c r="B113">
+        <v>3187.8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>3187.8</v>
+      </c>
+      <c r="G113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>791294200</v>
+      </c>
+      <c r="B114">
+        <v>3187.8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>3187.8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>791294300</v>
+      </c>
+      <c r="B115">
+        <v>3187.8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>3187.8</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>791294400</v>
+      </c>
+      <c r="B116">
+        <v>3187.8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>3187.8</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>791294500</v>
+      </c>
+      <c r="B117">
+        <v>3187.8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>3187.8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>791294600</v>
+      </c>
+      <c r="B118">
+        <v>3187.8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>3187.8</v>
+      </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>791294700</v>
+      </c>
+      <c r="B119">
+        <v>3187.8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>3187.8</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>791294800</v>
+      </c>
+      <c r="B120">
+        <v>3187.8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>3187.8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>791294900</v>
+      </c>
+      <c r="B121">
+        <v>3187.8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>3187.8</v>
+      </c>
+      <c r="G121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>791295000</v>
+      </c>
+      <c r="B122">
+        <v>3187.8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>3187.8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>791295100</v>
+      </c>
+      <c r="B123">
+        <v>3187.8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>3187.8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>791295200</v>
+      </c>
+      <c r="B124">
+        <v>3187.8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>3187.8</v>
+      </c>
+      <c r="G124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>791295400</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>3187.8</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>3187.8</v>
+      </c>
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>791295500</v>
+      </c>
+      <c r="B126">
+        <v>3187.8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>3187.8</v>
+      </c>
+      <c r="G126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>791295600</v>
+      </c>
+      <c r="B127">
+        <v>3187.8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>3187.8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>791295700</v>
+      </c>
+      <c r="B128">
+        <v>3187.8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>3187.8</v>
+      </c>
+      <c r="G128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>791295800</v>
+      </c>
+      <c r="B129">
+        <v>239.45</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>239.45</v>
+      </c>
+      <c r="G129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>791295900</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>1678.73</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>1678.73</v>
+      </c>
+      <c r="G130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>812310203</v>
+      </c>
+      <c r="B131">
+        <v>5270189.09</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>9790.860000000001</v>
+      </c>
+      <c r="E131">
+        <v>892394.03</v>
+      </c>
+      <c r="F131">
+        <v>6152792.26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>812319910</v>
+      </c>
+      <c r="B132">
+        <v>1169303.07</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>5237.36</v>
+      </c>
+      <c r="E132">
+        <v>82737.36</v>
+      </c>
+      <c r="F132">
+        <v>1246803.07</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>821110110</v>
+      </c>
+      <c r="B133">
+        <v>106161.97</v>
+      </c>
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133">
+        <v>46012.01</v>
+      </c>
+      <c r="E133">
+        <v>25446</v>
+      </c>
+      <c r="F133">
+        <v>126727.98</v>
+      </c>
+      <c r="G133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>821120110</v>
+      </c>
+      <c r="B134">
+        <v>136797.76</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>24858.91</v>
+      </c>
+      <c r="E134">
+        <v>46012.01</v>
+      </c>
+      <c r="F134">
+        <v>157950.86</v>
+      </c>
+      <c r="G134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>821130110</v>
+      </c>
+      <c r="B135">
+        <v>2041.55</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>24769.26</v>
+      </c>
+      <c r="E135">
+        <v>24858.91</v>
+      </c>
+      <c r="F135">
+        <v>2131.2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>821130280</v>
+      </c>
+      <c r="B136">
+        <v>1732.82</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136">
+        <v>7372.19</v>
+      </c>
+      <c r="E136">
+        <v>7372.19</v>
+      </c>
+      <c r="F136">
+        <v>1732.82</v>
+      </c>
+      <c r="G136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>821141041</v>
+      </c>
+      <c r="B137">
+        <v>1854.07</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>5867.55</v>
+      </c>
+      <c r="F137">
+        <v>7721.62</v>
+      </c>
+      <c r="G137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>821141047</v>
+      </c>
+      <c r="B138">
+        <v>4261.86</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>5495.08</v>
+      </c>
+      <c r="F138">
+        <v>9756.940000000001</v>
+      </c>
+      <c r="G138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>821141091</v>
+      </c>
+      <c r="B139">
+        <v>9000.07</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>13406.63</v>
+      </c>
+      <c r="F139">
+        <v>22406.7</v>
+      </c>
+      <c r="G139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>821148002</v>
+      </c>
+      <c r="B140">
+        <v>2468.93</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>5538.49</v>
+      </c>
+      <c r="F140">
+        <v>8007.42</v>
+      </c>
+      <c r="G140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>821148006</v>
+      </c>
+      <c r="B141">
+        <v>3445.82</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>1833.7</v>
+      </c>
+      <c r="F141">
+        <v>5279.52</v>
+      </c>
+      <c r="G141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>821149900</v>
+      </c>
+      <c r="B142">
+        <v>5615068.36</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>1068.33</v>
+      </c>
+      <c r="E142">
+        <v>2840992.5</v>
+      </c>
+      <c r="F142">
+        <v>8454992.529999999</v>
+      </c>
+      <c r="G142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>891130100</v>
+      </c>
+      <c r="B143">
+        <v>388542.25</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>388542.25</v>
+      </c>
+      <c r="G143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>891290200</v>
+      </c>
+      <c r="B144">
+        <v>424.83</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>424.83</v>
+      </c>
+      <c r="G144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>891290300</v>
+      </c>
+      <c r="B145">
+        <v>2758</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>2758</v>
+      </c>
+      <c r="G145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>891290500</v>
+      </c>
+      <c r="B146">
+        <v>685</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>685</v>
+      </c>
+      <c r="G146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>891290600</v>
+      </c>
+      <c r="B147">
+        <v>899</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>899</v>
+      </c>
+      <c r="G147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>891290700</v>
+      </c>
+      <c r="B148">
+        <v>3187.8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>3187.8</v>
+      </c>
+      <c r="G148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>891290800</v>
+      </c>
+      <c r="B149">
+        <v>1120.44</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1120.44</v>
+      </c>
+      <c r="G149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>891290900</v>
+      </c>
+      <c r="B150">
+        <v>5581.8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>5581.8</v>
+      </c>
+      <c r="G150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>891291000</v>
+      </c>
+      <c r="B151">
+        <v>5795.8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>899</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>4896.8</v>
+      </c>
+      <c r="G151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>891291100</v>
+      </c>
+      <c r="B152">
+        <v>1350</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>1350</v>
+      </c>
+      <c r="G152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>891291300</v>
+      </c>
+      <c r="B153">
+        <v>699</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>699</v>
+      </c>
+      <c r="G153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>891291400</v>
+      </c>
+      <c r="B154">
+        <v>699</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>699</v>
+      </c>
+      <c r="G154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>891291600</v>
+      </c>
+      <c r="B155">
+        <v>3628.32</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>3628.32</v>
+      </c>
+      <c r="G155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>891291700</v>
+      </c>
+      <c r="B156">
+        <v>2201.72</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156">
+        <v>284.01</v>
+      </c>
+      <c r="E156">
+        <v>374.07</v>
+      </c>
+      <c r="F156">
+        <v>2291.78</v>
+      </c>
+      <c r="G156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>891291800</v>
+      </c>
+      <c r="B157">
+        <v>780</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>780</v>
+      </c>
+      <c r="G157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>891291900</v>
+      </c>
+      <c r="B158">
+        <v>415.65</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>415.65</v>
+      </c>
+      <c r="G158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>891292000</v>
+      </c>
+      <c r="B159">
+        <v>5581.8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>5581.8</v>
+      </c>
+      <c r="G159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>891292100</v>
+      </c>
+      <c r="B160">
+        <v>1134</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>1134</v>
+      </c>
+      <c r="G160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>891292200</v>
+      </c>
+      <c r="B161">
+        <v>1134</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>1134</v>
+      </c>
+      <c r="G161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>891292300</v>
+      </c>
+      <c r="B162">
+        <v>1134</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>1134</v>
+      </c>
+      <c r="G162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>891292400</v>
+      </c>
+      <c r="B163">
+        <v>1134</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>1134</v>
+      </c>
+      <c r="G163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>891292500</v>
+      </c>
+      <c r="B164">
+        <v>1134</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>1134</v>
+      </c>
+      <c r="G164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>891292700</v>
+      </c>
+      <c r="B165">
+        <v>3187.8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>3187.8</v>
+      </c>
+      <c r="G165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>891292800</v>
+      </c>
+      <c r="B166">
+        <v>3187.8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>3187.8</v>
+      </c>
+      <c r="G166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>891292900</v>
+      </c>
+      <c r="B167">
+        <v>3187.8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>3187.8</v>
+      </c>
+      <c r="G167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>891293000</v>
+      </c>
+      <c r="B168">
+        <v>3187.8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>3187.8</v>
+      </c>
+      <c r="G168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>891293100</v>
+      </c>
+      <c r="B169">
+        <v>3187.8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>3187.8</v>
+      </c>
+      <c r="G169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>891293200</v>
+      </c>
+      <c r="B170">
+        <v>3187.8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>3187.8</v>
+      </c>
+      <c r="G170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>891293300</v>
+      </c>
+      <c r="B171">
+        <v>3187.8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>3187.8</v>
+      </c>
+      <c r="G171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>891293400</v>
+      </c>
+      <c r="B172">
+        <v>3187.8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>3187.8</v>
+      </c>
+      <c r="G172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>891293500</v>
+      </c>
+      <c r="B173">
+        <v>3187.8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>3187.8</v>
+      </c>
+      <c r="G173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>891293600</v>
+      </c>
+      <c r="B174">
+        <v>3187.8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>3187.8</v>
+      </c>
+      <c r="G174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>891293700</v>
+      </c>
+      <c r="B175">
+        <v>3187.8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>3187.8</v>
+      </c>
+      <c r="G175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>891293900</v>
+      </c>
+      <c r="B176">
+        <v>3187.8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>3187.8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>891294000</v>
+      </c>
+      <c r="B177">
+        <v>3187.8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>3187.8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>891294100</v>
+      </c>
+      <c r="B178">
+        <v>3187.8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>3187.8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>891294200</v>
+      </c>
+      <c r="B179">
+        <v>3187.8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>3187.8</v>
+      </c>
+      <c r="G179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>891294300</v>
+      </c>
+      <c r="B180">
+        <v>3187.8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>3187.8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>891294400</v>
+      </c>
+      <c r="B181">
+        <v>3187.8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>3187.8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>891294500</v>
+      </c>
+      <c r="B182">
+        <v>3187.8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>3187.8</v>
+      </c>
+      <c r="G182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>891294600</v>
+      </c>
+      <c r="B183">
+        <v>3187.8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>3187.8</v>
+      </c>
+      <c r="G183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>891294700</v>
+      </c>
+      <c r="B184">
+        <v>3187.8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>3187.8</v>
+      </c>
+      <c r="G184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>891294800</v>
+      </c>
+      <c r="B185">
+        <v>3187.8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>3187.8</v>
+      </c>
+      <c r="G185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>891294900</v>
+      </c>
+      <c r="B186">
+        <v>3187.8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>3187.8</v>
+      </c>
+      <c r="G186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>891295000</v>
+      </c>
+      <c r="B187">
+        <v>3187.8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>3187.8</v>
+      </c>
+      <c r="G187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>891295100</v>
+      </c>
+      <c r="B188">
+        <v>3187.8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>3187.8</v>
+      </c>
+      <c r="G188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>891295200</v>
+      </c>
+      <c r="B189">
+        <v>3187.8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>3187.8</v>
+      </c>
+      <c r="G189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>891295400</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>3187.8</v>
+      </c>
+      <c r="F190">
+        <v>3187.8</v>
+      </c>
+      <c r="G190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>891295500</v>
+      </c>
+      <c r="B191">
+        <v>3187.8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>3187.8</v>
+      </c>
+      <c r="G191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>891295600</v>
+      </c>
+      <c r="B192">
+        <v>3187.8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>3187.8</v>
+      </c>
+      <c r="G192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>891295700</v>
+      </c>
+      <c r="B193">
+        <v>3187.8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>3187.8</v>
+      </c>
+      <c r="G193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>891295800</v>
+      </c>
+      <c r="B194">
+        <v>239.45</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>239.45</v>
+      </c>
+      <c r="G194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>891295900</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>1678.73</v>
+      </c>
+      <c r="F195">
+        <v>1678.73</v>
+      </c>
+      <c r="G195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/teste-contas-balver-msc.xlsx
+++ b/output/teste-contas-balver-msc.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dados" sheetId="1" r:id="rId1"/>
+    <sheet name="dados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,13 +408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/teste-contas-balver-msc.xlsx
+++ b/output/teste-contas-balver-msc.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,546 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>conta_contabil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_inicial_valor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_inicial_natureza</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>movimento_debito</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>movimento_credito</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_final_valor</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_final_natureza</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>112330806</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>32524.82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32524.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112340801</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>283236.77</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>283236.77</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>113211101</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>2063.13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2063.13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>113819901</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>79135</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>79135</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>123210711</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>32186.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32186.75</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>237110100</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>60366934.09</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28559431.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>31807502.17</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>237120100</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>7975534.21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7975534.21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>237130100</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>1731030.34</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18926115.75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17195085.41</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>237140100</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>5367989.06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19559544.52</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14191555.46</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>531700000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>3544399.08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3544399.08</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>532700000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>141752.77</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>141752.77</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>631710000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3544399.08</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3544399.08</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>632700000</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>141752.77</v>
+      </c>
+      <c r="F14" t="n">
+        <v>141752.77</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>721121104</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>59632.62</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29816.31</v>
+      </c>
+      <c r="F15" t="n">
+        <v>29816.31</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>812910205</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>128940</v>
+      </c>
+      <c r="F16" t="n">
+        <v>128940</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>821110111</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>29816.31</v>
+      </c>
+      <c r="E17" t="n">
+        <v>67114.47</v>
+      </c>
+      <c r="F17" t="n">
+        <v>37298.16</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>891210304</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>500</v>
+      </c>
+      <c r="E18" t="n">
+        <v>500</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>892919907</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1634</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1634</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>892919908</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>156.18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>156.18</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>892919909</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>208.25</v>
+      </c>
+      <c r="F21" t="n">
+        <v>208.25</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>892919910</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>104.12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>104.12</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>892919911</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17920</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17920</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>